--- a/database/industries/siman/sehegmat/cost/yearly.xlsx
+++ b/database/industries/siman/sehegmat/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACB4BF9-2D0B-4595-B974-113D7808BF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6EEC3D-08D9-47BE-9DBB-1115B693F968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/10</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/10</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/10</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/10</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -665,12 +665,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -680,7 +680,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -714,7 +714,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -748,7 +748,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -780,161 +780,161 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>197146</v>
+        <v>246191</v>
       </c>
       <c r="F10" s="9">
-        <v>246191</v>
+        <v>415253</v>
       </c>
       <c r="G10" s="9">
-        <v>415253</v>
+        <v>601605</v>
       </c>
       <c r="H10" s="9">
-        <v>601605</v>
+        <v>965733</v>
       </c>
       <c r="I10" s="9">
-        <v>965733</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1272018</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>46191</v>
+        <v>58355</v>
       </c>
       <c r="F11" s="11">
-        <v>58355</v>
+        <v>90369</v>
       </c>
       <c r="G11" s="11">
-        <v>90369</v>
+        <v>99097</v>
       </c>
       <c r="H11" s="11">
-        <v>99097</v>
+        <v>153006</v>
       </c>
       <c r="I11" s="11">
-        <v>153006</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>255371</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>741338</v>
+        <v>843272</v>
       </c>
       <c r="F12" s="9">
-        <v>843272</v>
+        <v>995543</v>
       </c>
       <c r="G12" s="9">
-        <v>995543</v>
+        <v>1222661</v>
       </c>
       <c r="H12" s="9">
-        <v>1222661</v>
+        <v>2226436</v>
       </c>
       <c r="I12" s="9">
-        <v>2226436</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3675082</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>984675</v>
+        <v>1147818</v>
       </c>
       <c r="F13" s="13">
-        <v>1147818</v>
+        <v>1501165</v>
       </c>
       <c r="G13" s="13">
-        <v>1501165</v>
+        <v>1923363</v>
       </c>
       <c r="H13" s="13">
-        <v>1923363</v>
+        <v>3345175</v>
       </c>
       <c r="I13" s="13">
-        <v>3345175</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5202471</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-5188</v>
+        <v>-7500</v>
       </c>
       <c r="F14" s="9">
-        <v>-7500</v>
+        <v>-19206</v>
       </c>
       <c r="G14" s="9">
-        <v>-19206</v>
+        <v>-6497</v>
       </c>
       <c r="H14" s="9">
-        <v>-6497</v>
+        <v>-13411</v>
       </c>
       <c r="I14" s="9">
-        <v>-13411</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-14936</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>979487</v>
+        <v>1140318</v>
       </c>
       <c r="F15" s="13">
-        <v>1140318</v>
+        <v>1481959</v>
       </c>
       <c r="G15" s="13">
-        <v>1481959</v>
+        <v>1916866</v>
       </c>
       <c r="H15" s="13">
-        <v>1916866</v>
+        <v>3331764</v>
       </c>
       <c r="I15" s="13">
-        <v>3331764</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5187535</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-125054</v>
+        <v>-175806</v>
       </c>
       <c r="F16" s="9">
-        <v>-175806</v>
+        <v>161989</v>
       </c>
       <c r="G16" s="9">
-        <v>161989</v>
+        <v>-72138</v>
       </c>
       <c r="H16" s="9">
-        <v>-72138</v>
+        <v>-269949</v>
       </c>
       <c r="I16" s="9">
-        <v>-269949</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-336356</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>-102686</v>
       </c>
       <c r="G17" s="11">
-        <v>-102686</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -956,95 +956,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>854433</v>
+        <v>964512</v>
       </c>
       <c r="F18" s="15">
-        <v>964512</v>
+        <v>1541262</v>
       </c>
       <c r="G18" s="15">
-        <v>1541262</v>
+        <v>1844728</v>
       </c>
       <c r="H18" s="15">
-        <v>1844728</v>
+        <v>3061815</v>
       </c>
       <c r="I18" s="15">
-        <v>3061815</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4851179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>16299</v>
+        <v>10880</v>
       </c>
       <c r="F19" s="11">
-        <v>10880</v>
+        <v>13073</v>
       </c>
       <c r="G19" s="11">
-        <v>13073</v>
+        <v>17404</v>
       </c>
       <c r="H19" s="11">
-        <v>17404</v>
+        <v>9674</v>
       </c>
       <c r="I19" s="11">
-        <v>36564</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-10880</v>
+        <v>-13073</v>
       </c>
       <c r="F20" s="9">
-        <v>-13073</v>
+        <v>-17404</v>
       </c>
       <c r="G20" s="9">
-        <v>-17404</v>
+        <v>-9675</v>
       </c>
       <c r="H20" s="9">
-        <v>-9675</v>
+        <v>-40136</v>
       </c>
       <c r="I20" s="9">
-        <v>-40137</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-63159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>859852</v>
+        <v>962319</v>
       </c>
       <c r="F21" s="13">
-        <v>962319</v>
+        <v>1536931</v>
       </c>
       <c r="G21" s="13">
-        <v>1536931</v>
+        <v>1852457</v>
       </c>
       <c r="H21" s="13">
-        <v>1852457</v>
+        <v>3031353</v>
       </c>
       <c r="I21" s="13">
-        <v>3031353</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4828156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1066,29 +1066,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>859852</v>
+        <v>962319</v>
       </c>
       <c r="F23" s="13">
-        <v>962319</v>
+        <v>1536931</v>
       </c>
       <c r="G23" s="13">
-        <v>1536931</v>
+        <v>1852457</v>
       </c>
       <c r="H23" s="13">
-        <v>1852457</v>
+        <v>3031353</v>
       </c>
       <c r="I23" s="13">
-        <v>3031353</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4828156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1098,7 +1098,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1108,7 +1108,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1118,7 +1118,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1150,7 +1150,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1158,23 +1158,23 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>1751420</v>
       </c>
       <c r="F29" s="9">
-        <v>1751420</v>
-      </c>
-      <c r="G29" s="9">
         <v>1882770</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+      <c r="G29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2310200</v>
       </c>
       <c r="I29" s="9">
-        <v>2310200</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1880380</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1188,17 +1188,17 @@
       <c r="F30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="G30" s="11">
         <v>1986820</v>
       </c>
+      <c r="H30" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I30" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1206,23 +1206,23 @@
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>67500</v>
       </c>
       <c r="F31" s="9">
-        <v>67500</v>
+        <v>119000</v>
       </c>
       <c r="G31" s="9">
-        <v>119000</v>
+        <v>73000</v>
       </c>
       <c r="H31" s="9">
-        <v>73000</v>
+        <v>48000</v>
       </c>
       <c r="I31" s="9">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110180</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1230,23 +1230,23 @@
         <v>30</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>351293</v>
       </c>
       <c r="F32" s="11">
-        <v>351293</v>
+        <v>137365</v>
       </c>
       <c r="G32" s="11">
-        <v>137365</v>
+        <v>153965</v>
       </c>
       <c r="H32" s="11">
-        <v>153965</v>
+        <v>673451</v>
       </c>
       <c r="I32" s="11">
-        <v>673451</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>885161</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1254,23 +1254,23 @@
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>8607</v>
       </c>
       <c r="F33" s="9">
-        <v>8607</v>
+        <v>8034</v>
       </c>
       <c r="G33" s="9">
-        <v>8034</v>
+        <v>8285</v>
       </c>
       <c r="H33" s="9">
-        <v>8285</v>
+        <v>8282</v>
       </c>
       <c r="I33" s="9">
-        <v>8282</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
@@ -1278,23 +1278,23 @@
         <v>30</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
+      <c r="E34" s="11">
+        <v>15904</v>
       </c>
       <c r="F34" s="11">
-        <v>15904</v>
+        <v>40354</v>
       </c>
       <c r="G34" s="11">
-        <v>40354</v>
+        <v>10028</v>
       </c>
       <c r="H34" s="11">
-        <v>10028</v>
+        <v>31614</v>
       </c>
       <c r="I34" s="11">
-        <v>31614</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
@@ -1302,23 +1302,23 @@
         <v>30</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>26</v>
+      <c r="E35" s="9">
+        <v>3280</v>
       </c>
       <c r="F35" s="9">
-        <v>3280</v>
+        <v>16401</v>
       </c>
       <c r="G35" s="9">
-        <v>16401</v>
+        <v>18365</v>
       </c>
       <c r="H35" s="9">
-        <v>18365</v>
+        <v>5077</v>
       </c>
       <c r="I35" s="9">
-        <v>5077</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34208</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>34</v>
       </c>
@@ -1326,23 +1326,23 @@
         <v>30</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>26</v>
+      <c r="E36" s="11">
+        <v>616404</v>
       </c>
       <c r="F36" s="11">
-        <v>616404</v>
+        <v>473240</v>
       </c>
       <c r="G36" s="11">
-        <v>473240</v>
+        <v>114494</v>
       </c>
       <c r="H36" s="11">
-        <v>114494</v>
+        <v>330210</v>
       </c>
       <c r="I36" s="11">
-        <v>330210</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>479883</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
@@ -1350,23 +1350,23 @@
         <v>30</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="E37" s="9">
         <v>1058</v>
       </c>
+      <c r="F37" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
@@ -1374,45 +1374,45 @@
         <v>30</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
+      <c r="E38" s="11">
+        <v>13124</v>
       </c>
       <c r="F38" s="11">
-        <v>13124</v>
+        <v>12791</v>
       </c>
       <c r="G38" s="11">
-        <v>12791</v>
+        <v>7717</v>
       </c>
       <c r="H38" s="11">
-        <v>7717</v>
+        <v>6812</v>
       </c>
       <c r="I38" s="11">
-        <v>6812</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25187</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>2828590</v>
       </c>
       <c r="F39" s="15">
-        <v>2828590</v>
+        <v>2689955</v>
       </c>
       <c r="G39" s="15">
-        <v>2689955</v>
+        <v>2372674</v>
       </c>
       <c r="H39" s="15">
-        <v>2372674</v>
+        <v>3413646</v>
       </c>
       <c r="I39" s="15">
-        <v>3413646</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3468846</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1422,7 +1422,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1432,7 +1432,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1442,7 +1442,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>37</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1474,7 +1474,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1482,23 +1482,23 @@
         <v>25</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>26</v>
+      <c r="E45" s="9">
+        <v>8463980</v>
       </c>
       <c r="F45" s="9">
-        <v>8463980</v>
-      </c>
-      <c r="G45" s="9">
         <v>10540281</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>26</v>
+      <c r="G45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="9">
+        <v>11409241</v>
       </c>
       <c r="I45" s="9">
-        <v>11409241</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>636865</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1512,17 +1512,17 @@
       <c r="F46" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="11">
+      <c r="G46" s="11">
         <v>11364555</v>
       </c>
+      <c r="H46" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>28</v>
       </c>
@@ -1530,11 +1530,11 @@
         <v>25</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>26</v>
+      <c r="E47" s="9">
+        <v>992331</v>
       </c>
       <c r="F47" s="9">
-        <v>992331</v>
+        <v>0</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>29</v>
       </c>
@@ -1554,23 +1554,23 @@
         <v>30</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>26</v>
+      <c r="E48" s="11">
+        <v>882558</v>
       </c>
       <c r="F48" s="11">
-        <v>882558</v>
+        <v>959585</v>
       </c>
       <c r="G48" s="11">
-        <v>959585</v>
+        <v>1538139</v>
       </c>
       <c r="H48" s="11">
-        <v>1538139</v>
+        <v>1050075</v>
       </c>
       <c r="I48" s="11">
-        <v>1050075</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>892478</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>31</v>
       </c>
@@ -1578,14 +1578,14 @@
         <v>25</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>26</v>
+      <c r="E49" s="9">
+        <v>0</v>
       </c>
       <c r="F49" s="9">
-        <v>0</v>
+        <v>2815</v>
       </c>
       <c r="G49" s="9">
-        <v>2815</v>
+        <v>0</v>
       </c>
       <c r="H49" s="9">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>32</v>
       </c>
@@ -1602,23 +1602,23 @@
         <v>30</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>26</v>
+      <c r="E50" s="11">
+        <v>61826</v>
       </c>
       <c r="F50" s="11">
-        <v>61826</v>
+        <v>2644</v>
       </c>
       <c r="G50" s="11">
-        <v>2644</v>
+        <v>50223</v>
       </c>
       <c r="H50" s="11">
-        <v>50223</v>
+        <v>39037</v>
       </c>
       <c r="I50" s="11">
-        <v>39037</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>33</v>
       </c>
@@ -1626,23 +1626,23 @@
         <v>30</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>26</v>
+      <c r="E51" s="9">
+        <v>73691</v>
       </c>
       <c r="F51" s="9">
-        <v>73691</v>
+        <v>80391</v>
       </c>
       <c r="G51" s="9">
-        <v>80391</v>
+        <v>60928</v>
       </c>
       <c r="H51" s="9">
-        <v>60928</v>
+        <v>94463</v>
       </c>
       <c r="I51" s="9">
-        <v>94463</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38973</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>34</v>
       </c>
@@ -1650,23 +1650,23 @@
         <v>30</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>26</v>
+      <c r="E52" s="11">
+        <v>1330318</v>
       </c>
       <c r="F52" s="11">
-        <v>1330318</v>
+        <v>1243128</v>
       </c>
       <c r="G52" s="11">
-        <v>1243128</v>
+        <v>2064608</v>
       </c>
       <c r="H52" s="11">
-        <v>2064608</v>
+        <v>1937185</v>
       </c>
       <c r="I52" s="11">
-        <v>1937185</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1990993</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>35</v>
       </c>
@@ -1674,23 +1674,23 @@
         <v>30</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="9">
-        <v>0</v>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="9">
+      <c r="H53" s="9">
         <v>1814</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>36</v>
       </c>
@@ -1698,45 +1698,45 @@
         <v>30</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>69856</v>
       </c>
       <c r="F54" s="11">
-        <v>69856</v>
+        <v>66691</v>
       </c>
       <c r="G54" s="11">
-        <v>66691</v>
+        <v>79007</v>
       </c>
       <c r="H54" s="11">
-        <v>79007</v>
+        <v>88942</v>
       </c>
       <c r="I54" s="11">
-        <v>88942</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27504</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>0</v>
+        <v>11874560</v>
       </c>
       <c r="F55" s="15">
-        <v>11874560</v>
+        <v>12895535</v>
       </c>
       <c r="G55" s="15">
-        <v>12895535</v>
+        <v>15157460</v>
       </c>
       <c r="H55" s="15">
-        <v>15157460</v>
+        <v>14620757</v>
       </c>
       <c r="I55" s="15">
-        <v>14620757</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3586814</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1746,7 +1746,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1756,7 +1756,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1766,7 +1766,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>38</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1798,7 +1798,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
@@ -1806,23 +1806,23 @@
         <v>25</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>26</v>
+      <c r="E61" s="9">
+        <v>8332630</v>
       </c>
       <c r="F61" s="9">
-        <v>8332630</v>
-      </c>
-      <c r="G61" s="9">
         <v>10496231</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>26</v>
+      <c r="G61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="9">
+        <v>10785261</v>
       </c>
       <c r="I61" s="9">
-        <v>10785261</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33745</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>27</v>
       </c>
@@ -1836,17 +1836,17 @@
       <c r="F62" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="11">
+      <c r="G62" s="11">
         <v>10031175</v>
       </c>
+      <c r="H62" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I62" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>28</v>
       </c>
@@ -1854,23 +1854,23 @@
         <v>25</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>26</v>
+      <c r="E63" s="9">
+        <v>940831</v>
       </c>
       <c r="F63" s="9">
-        <v>940831</v>
+        <v>10500</v>
       </c>
       <c r="G63" s="9">
-        <v>10500</v>
+        <v>25000</v>
       </c>
       <c r="H63" s="9">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="I63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65310</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>29</v>
       </c>
@@ -1878,23 +1878,23 @@
         <v>30</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>26</v>
+      <c r="E64" s="11">
+        <v>1096486</v>
       </c>
       <c r="F64" s="11">
-        <v>1096486</v>
+        <v>1042984</v>
       </c>
       <c r="G64" s="11">
-        <v>1042984</v>
+        <v>1016931</v>
       </c>
       <c r="H64" s="11">
-        <v>1016931</v>
+        <v>867247</v>
       </c>
       <c r="I64" s="11">
-        <v>867247</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>944152</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>31</v>
       </c>
@@ -1902,23 +1902,23 @@
         <v>25</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>26</v>
+      <c r="E65" s="9">
+        <v>570</v>
       </c>
       <c r="F65" s="9">
-        <v>570</v>
+        <v>2364</v>
       </c>
       <c r="G65" s="9">
-        <v>2364</v>
+        <v>3</v>
       </c>
       <c r="H65" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>32</v>
       </c>
@@ -1926,23 +1926,23 @@
         <v>30</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>26</v>
+      <c r="E66" s="11">
+        <v>37376</v>
       </c>
       <c r="F66" s="11">
-        <v>37376</v>
+        <v>32970</v>
       </c>
       <c r="G66" s="11">
-        <v>32970</v>
+        <v>28639</v>
       </c>
       <c r="H66" s="11">
-        <v>28639</v>
+        <v>26704</v>
       </c>
       <c r="I66" s="11">
-        <v>26704</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25088</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
@@ -1950,23 +1950,23 @@
         <v>30</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>26</v>
+      <c r="E67" s="9">
+        <v>59570</v>
       </c>
       <c r="F67" s="9">
-        <v>59570</v>
+        <v>78427</v>
       </c>
       <c r="G67" s="9">
-        <v>78427</v>
+        <v>74216</v>
       </c>
       <c r="H67" s="9">
-        <v>74216</v>
+        <v>60400</v>
       </c>
       <c r="I67" s="9">
-        <v>60400</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63276</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>34</v>
       </c>
@@ -1974,23 +1974,23 @@
         <v>30</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>26</v>
+      <c r="E68" s="11">
+        <v>1472728</v>
       </c>
       <c r="F68" s="11">
-        <v>1472728</v>
+        <v>1677873</v>
       </c>
       <c r="G68" s="11">
-        <v>1677873</v>
+        <v>1849</v>
       </c>
       <c r="H68" s="11">
-        <v>1849</v>
+        <v>1883767</v>
       </c>
       <c r="I68" s="11">
-        <v>1883767</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1985118</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>35</v>
       </c>
@@ -1998,23 +1998,23 @@
         <v>30</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="9">
+      <c r="E69" s="9">
         <v>1058</v>
       </c>
+      <c r="F69" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G69" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="9">
+      <c r="H69" s="9">
         <v>1814</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>36</v>
       </c>
@@ -2022,45 +2022,45 @@
         <v>30</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+      <c r="E70" s="11">
+        <v>70189</v>
       </c>
       <c r="F70" s="11">
-        <v>70189</v>
+        <v>71765</v>
       </c>
       <c r="G70" s="11">
-        <v>71765</v>
+        <v>79912</v>
       </c>
       <c r="H70" s="11">
-        <v>79912</v>
+        <v>69225</v>
       </c>
       <c r="I70" s="11">
-        <v>69225</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6828</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>0</v>
+        <v>12011438</v>
       </c>
       <c r="F71" s="15">
-        <v>12011438</v>
+        <v>13413114</v>
       </c>
       <c r="G71" s="15">
-        <v>13413114</v>
+        <v>11257725</v>
       </c>
       <c r="H71" s="15">
-        <v>11257725</v>
+        <v>13694418</v>
       </c>
       <c r="I71" s="15">
-        <v>13694418</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3123566</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2070,7 +2070,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2080,7 +2080,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2090,7 +2090,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>39</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2122,7 +2122,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
@@ -2130,23 +2130,23 @@
         <v>25</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>26</v>
+      <c r="E77" s="9">
+        <v>1882770</v>
       </c>
       <c r="F77" s="9">
-        <v>1882770</v>
-      </c>
-      <c r="G77" s="9">
         <v>1926820</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>26</v>
+      <c r="G77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="9">
+        <v>2934180</v>
       </c>
       <c r="I77" s="9">
-        <v>2934180</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2483500</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>27</v>
       </c>
@@ -2160,17 +2160,17 @@
       <c r="F78" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="11">
+      <c r="G78" s="11">
         <v>3320200</v>
       </c>
+      <c r="H78" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I78" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>28</v>
       </c>
@@ -2178,23 +2178,23 @@
         <v>25</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>26</v>
+      <c r="E79" s="9">
+        <v>119000</v>
       </c>
       <c r="F79" s="9">
-        <v>119000</v>
+        <v>108500</v>
       </c>
       <c r="G79" s="9">
-        <v>108500</v>
+        <v>48000</v>
       </c>
       <c r="H79" s="9">
         <v>48000</v>
       </c>
       <c r="I79" s="9">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>29</v>
       </c>
@@ -2202,23 +2202,23 @@
         <v>30</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>26</v>
+      <c r="E80" s="11">
+        <v>137365</v>
       </c>
       <c r="F80" s="11">
-        <v>137365</v>
+        <v>53966</v>
       </c>
       <c r="G80" s="11">
-        <v>53966</v>
+        <v>675173</v>
       </c>
       <c r="H80" s="11">
-        <v>675173</v>
+        <v>856279</v>
       </c>
       <c r="I80" s="11">
-        <v>856279</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>833487</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>31</v>
       </c>
@@ -2226,23 +2226,23 @@
         <v>25</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>26</v>
+      <c r="E81" s="9">
+        <v>8037</v>
       </c>
       <c r="F81" s="9">
-        <v>8037</v>
+        <v>8485</v>
       </c>
       <c r="G81" s="9">
-        <v>8485</v>
+        <v>8282</v>
       </c>
       <c r="H81" s="9">
         <v>8282</v>
       </c>
       <c r="I81" s="9">
-        <v>8282</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
@@ -2250,23 +2250,23 @@
         <v>30</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>26</v>
+      <c r="E82" s="11">
+        <v>40354</v>
       </c>
       <c r="F82" s="11">
-        <v>40354</v>
+        <v>10028</v>
       </c>
       <c r="G82" s="11">
-        <v>10028</v>
+        <v>31612</v>
       </c>
       <c r="H82" s="11">
-        <v>31612</v>
+        <v>43947</v>
       </c>
       <c r="I82" s="11">
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20486</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>33</v>
       </c>
@@ -2274,23 +2274,23 @@
         <v>30</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>26</v>
+      <c r="E83" s="9">
+        <v>17401</v>
       </c>
       <c r="F83" s="9">
-        <v>17401</v>
+        <v>18365</v>
       </c>
       <c r="G83" s="9">
-        <v>18365</v>
+        <v>5077</v>
       </c>
       <c r="H83" s="9">
-        <v>5077</v>
+        <v>39140</v>
       </c>
       <c r="I83" s="9">
-        <v>39140</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9905</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>34</v>
       </c>
@@ -2298,23 +2298,23 @@
         <v>30</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>26</v>
+      <c r="E84" s="11">
+        <v>473994</v>
       </c>
       <c r="F84" s="11">
-        <v>473994</v>
+        <v>38495</v>
       </c>
       <c r="G84" s="11">
-        <v>38495</v>
+        <v>2177253</v>
       </c>
       <c r="H84" s="11">
-        <v>2177253</v>
+        <v>383628</v>
       </c>
       <c r="I84" s="11">
-        <v>383628</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>485758</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>35</v>
       </c>
@@ -2322,23 +2322,23 @@
         <v>30</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="9">
-        <v>0</v>
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>36</v>
       </c>
@@ -2346,45 +2346,45 @@
         <v>30</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
+      <c r="E86" s="11">
+        <v>12791</v>
       </c>
       <c r="F86" s="11">
-        <v>12791</v>
+        <v>7717</v>
       </c>
       <c r="G86" s="11">
-        <v>7717</v>
+        <v>6812</v>
       </c>
       <c r="H86" s="11">
-        <v>6812</v>
+        <v>26529</v>
       </c>
       <c r="I86" s="11">
-        <v>26529</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>2691712</v>
       </c>
       <c r="F87" s="15">
-        <v>2691712</v>
+        <v>2172376</v>
       </c>
       <c r="G87" s="15">
-        <v>2172376</v>
+        <v>6272409</v>
       </c>
       <c r="H87" s="15">
-        <v>6272409</v>
+        <v>4339985</v>
       </c>
       <c r="I87" s="15">
-        <v>4339985</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3932094</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2394,7 +2394,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2404,7 +2404,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2414,7 +2414,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>40</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2446,7 +2446,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
@@ -2454,23 +2454,23 @@
         <v>41</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>26</v>
+      <c r="E93" s="9">
+        <v>9660</v>
       </c>
       <c r="F93" s="9">
-        <v>9660</v>
-      </c>
-      <c r="G93" s="9">
         <v>23605</v>
       </c>
-      <c r="H93" s="9" t="s">
-        <v>26</v>
+      <c r="G93" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="9">
+        <v>57465</v>
       </c>
       <c r="I93" s="9">
-        <v>57465</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54029</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>27</v>
       </c>
@@ -2484,17 +2484,17 @@
       <c r="F94" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G94" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="11">
+      <c r="G94" s="11">
         <v>24182</v>
       </c>
+      <c r="H94" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I94" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>28</v>
       </c>
@@ -2502,23 +2502,23 @@
         <v>41</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
-        <v>26</v>
+      <c r="E95" s="9">
+        <v>649</v>
       </c>
       <c r="F95" s="9">
-        <v>649</v>
+        <v>100</v>
       </c>
       <c r="G95" s="9">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H95" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I95" s="9">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34654</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>29</v>
       </c>
@@ -2526,23 +2526,23 @@
         <v>41</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>26</v>
+      <c r="E96" s="11">
+        <v>9835</v>
       </c>
       <c r="F96" s="11">
-        <v>9835</v>
+        <v>4878</v>
       </c>
       <c r="G96" s="11">
-        <v>4878</v>
+        <v>7583</v>
       </c>
       <c r="H96" s="11">
-        <v>7583</v>
+        <v>67521</v>
       </c>
       <c r="I96" s="11">
-        <v>67521</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>95637</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>31</v>
       </c>
@@ -2550,23 +2550,23 @@
         <v>41</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>26</v>
+      <c r="E97" s="9">
+        <v>1688</v>
       </c>
       <c r="F97" s="9">
-        <v>1688</v>
+        <v>1640</v>
       </c>
       <c r="G97" s="9">
-        <v>1640</v>
+        <v>2545</v>
       </c>
       <c r="H97" s="9">
-        <v>2545</v>
+        <v>2562</v>
       </c>
       <c r="I97" s="9">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>32</v>
       </c>
@@ -2574,23 +2574,23 @@
         <v>41</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>26</v>
+      <c r="E98" s="11">
+        <v>3345</v>
       </c>
       <c r="F98" s="11">
-        <v>3345</v>
+        <v>14432</v>
       </c>
       <c r="G98" s="11">
-        <v>14432</v>
+        <v>3594</v>
       </c>
       <c r="H98" s="11">
-        <v>3594</v>
+        <v>24755</v>
       </c>
       <c r="I98" s="11">
-        <v>24755</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61386</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>33</v>
       </c>
@@ -2598,23 +2598,23 @@
         <v>41</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>26</v>
+      <c r="E99" s="9">
+        <v>467</v>
       </c>
       <c r="F99" s="9">
-        <v>467</v>
+        <v>4416</v>
       </c>
       <c r="G99" s="9">
-        <v>4416</v>
+        <v>8255</v>
       </c>
       <c r="H99" s="9">
-        <v>8255</v>
+        <v>3333</v>
       </c>
       <c r="I99" s="9">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34942</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>34</v>
       </c>
@@ -2622,23 +2622,23 @@
         <v>41</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>26</v>
+      <c r="E100" s="11">
+        <v>28095</v>
       </c>
       <c r="F100" s="11">
-        <v>28095</v>
+        <v>24470</v>
       </c>
       <c r="G100" s="11">
-        <v>24470</v>
+        <v>8712</v>
       </c>
       <c r="H100" s="11">
-        <v>8712</v>
+        <v>31283</v>
       </c>
       <c r="I100" s="11">
-        <v>31283</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>80952</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>35</v>
       </c>
@@ -2646,23 +2646,23 @@
         <v>41</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="9">
+      <c r="E101" s="9">
         <v>167</v>
       </c>
+      <c r="F101" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G101" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I101" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H101" s="9">
+        <v>0</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>36</v>
       </c>
@@ -2670,45 +2670,45 @@
         <v>41</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>26</v>
+      <c r="E102" s="11">
+        <v>4913</v>
       </c>
       <c r="F102" s="11">
-        <v>4913</v>
+        <v>6106</v>
       </c>
       <c r="G102" s="11">
-        <v>6106</v>
+        <v>5780</v>
       </c>
       <c r="H102" s="11">
-        <v>5780</v>
+        <v>10384</v>
       </c>
       <c r="I102" s="11">
-        <v>10384</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>89883</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>0</v>
+        <v>58819</v>
       </c>
       <c r="F103" s="15">
-        <v>58819</v>
+        <v>79647</v>
       </c>
       <c r="G103" s="15">
-        <v>79647</v>
+        <v>60738</v>
       </c>
       <c r="H103" s="15">
-        <v>60738</v>
+        <v>197360</v>
       </c>
       <c r="I103" s="15">
-        <v>197360</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>454042</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2718,7 +2718,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2728,7 +2728,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2738,7 +2738,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>42</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2770,7 +2770,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>24</v>
       </c>
@@ -2778,23 +2778,23 @@
         <v>41</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
+      <c r="E109" s="9">
+        <v>90134</v>
       </c>
       <c r="F109" s="9">
-        <v>90134</v>
-      </c>
-      <c r="G109" s="9">
         <v>156523</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>26</v>
+      <c r="G109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="9">
+        <v>383243</v>
       </c>
       <c r="I109" s="9">
-        <v>383243</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>327028</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>27</v>
       </c>
@@ -2808,17 +2808,17 @@
       <c r="F110" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="11">
+      <c r="G110" s="11">
         <v>236515</v>
       </c>
+      <c r="H110" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I110" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>28</v>
       </c>
@@ -2826,11 +2826,11 @@
         <v>41</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>26</v>
+      <c r="E111" s="9">
+        <v>11574</v>
       </c>
       <c r="F111" s="9">
-        <v>11574</v>
+        <v>0</v>
       </c>
       <c r="G111" s="9">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>29</v>
       </c>
@@ -2850,23 +2850,23 @@
         <v>41</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>26</v>
+      <c r="E112" s="11">
+        <v>30225</v>
       </c>
       <c r="F112" s="11">
-        <v>30225</v>
+        <v>46689</v>
       </c>
       <c r="G112" s="11">
-        <v>46689</v>
+        <v>133398</v>
       </c>
       <c r="H112" s="11">
-        <v>133398</v>
+        <v>117650</v>
       </c>
       <c r="I112" s="11">
-        <v>117650</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>158093</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>31</v>
       </c>
@@ -2874,14 +2874,14 @@
         <v>41</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>26</v>
+      <c r="E113" s="9">
+        <v>0</v>
       </c>
       <c r="F113" s="9">
-        <v>0</v>
+        <v>1681</v>
       </c>
       <c r="G113" s="9">
-        <v>1681</v>
+        <v>0</v>
       </c>
       <c r="H113" s="9">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>32</v>
       </c>
@@ -2898,23 +2898,23 @@
         <v>41</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>26</v>
+      <c r="E114" s="11">
+        <v>20096</v>
       </c>
       <c r="F114" s="11">
-        <v>20096</v>
+        <v>975</v>
       </c>
       <c r="G114" s="11">
-        <v>975</v>
+        <v>37894</v>
       </c>
       <c r="H114" s="11">
-        <v>37894</v>
+        <v>60744</v>
       </c>
       <c r="I114" s="11">
-        <v>60744</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>33</v>
       </c>
@@ -2922,23 +2922,23 @@
         <v>41</v>
       </c>
       <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
-        <v>26</v>
+      <c r="E115" s="9">
+        <v>15512</v>
       </c>
       <c r="F115" s="9">
-        <v>15512</v>
+        <v>32137</v>
       </c>
       <c r="G115" s="9">
-        <v>32137</v>
+        <v>33830</v>
       </c>
       <c r="H115" s="9">
-        <v>33830</v>
+        <v>86599</v>
       </c>
       <c r="I115" s="9">
-        <v>86599</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>34</v>
       </c>
@@ -2946,23 +2946,23 @@
         <v>41</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>26</v>
+      <c r="E116" s="11">
+        <v>69513</v>
       </c>
       <c r="F116" s="11">
-        <v>69513</v>
+        <v>100019</v>
       </c>
       <c r="G116" s="11">
-        <v>100019</v>
+        <v>192907</v>
       </c>
       <c r="H116" s="11">
-        <v>192907</v>
+        <v>317786</v>
       </c>
       <c r="I116" s="11">
-        <v>317786</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>462147</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>35</v>
       </c>
@@ -2970,23 +2970,23 @@
         <v>41</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9">
-        <v>0</v>
+      <c r="E117" s="9">
+        <v>0</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G117" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" s="9">
+      <c r="H117" s="9">
         <v>194</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I117" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>36</v>
       </c>
@@ -2994,45 +2994,45 @@
         <v>41</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>26</v>
+      <c r="E118" s="11">
+        <v>30139</v>
       </c>
       <c r="F118" s="11">
-        <v>30139</v>
+        <v>48198</v>
       </c>
       <c r="G118" s="11">
-        <v>48198</v>
+        <v>103684</v>
       </c>
       <c r="H118" s="11">
-        <v>103684</v>
+        <v>256198</v>
       </c>
       <c r="I118" s="11">
-        <v>256198</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>389524</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>0</v>
+        <v>267193</v>
       </c>
       <c r="F119" s="15">
-        <v>267193</v>
+        <v>386222</v>
       </c>
       <c r="G119" s="15">
-        <v>386222</v>
+        <v>738228</v>
       </c>
       <c r="H119" s="15">
-        <v>738228</v>
+        <v>1222414</v>
       </c>
       <c r="I119" s="15">
-        <v>1222414</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1382194</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3042,7 +3042,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3052,7 +3052,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3062,7 +3062,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>43</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3094,7 +3094,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>24</v>
       </c>
@@ -3102,23 +3102,23 @@
         <v>41</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>26</v>
+      <c r="E125" s="9">
+        <v>76188</v>
       </c>
       <c r="F125" s="9">
-        <v>76188</v>
-      </c>
-      <c r="G125" s="9">
         <v>155963</v>
       </c>
-      <c r="H125" s="9" t="s">
-        <v>26</v>
+      <c r="G125" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="9">
+        <v>352085</v>
       </c>
       <c r="I125" s="9">
-        <v>352085</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>301595</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>27</v>
       </c>
@@ -3132,17 +3132,17 @@
       <c r="F126" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G126" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" s="11">
+      <c r="G126" s="11">
         <v>203213</v>
       </c>
+      <c r="H126" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I126" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>28</v>
       </c>
@@ -3150,23 +3150,23 @@
         <v>41</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
-        <v>26</v>
+      <c r="E127" s="9">
+        <v>12123</v>
       </c>
       <c r="F127" s="9">
-        <v>12123</v>
+        <v>13</v>
       </c>
       <c r="G127" s="9">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H127" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I127" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22201</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>29</v>
       </c>
@@ -3174,23 +3174,23 @@
         <v>41</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>26</v>
+      <c r="E128" s="11">
+        <v>35183</v>
       </c>
       <c r="F128" s="11">
-        <v>35183</v>
+        <v>48648</v>
       </c>
       <c r="G128" s="11">
-        <v>48648</v>
+        <v>73460</v>
       </c>
       <c r="H128" s="11">
-        <v>73460</v>
+        <v>90538</v>
       </c>
       <c r="I128" s="11">
-        <v>90538</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>131808</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>31</v>
       </c>
@@ -3198,23 +3198,23 @@
         <v>41</v>
       </c>
       <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>26</v>
+      <c r="E129" s="9">
+        <v>48</v>
       </c>
       <c r="F129" s="9">
-        <v>48</v>
+        <v>724</v>
       </c>
       <c r="G129" s="9">
-        <v>724</v>
+        <v>1</v>
       </c>
       <c r="H129" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>32</v>
       </c>
@@ -3222,23 +3222,23 @@
         <v>41</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>26</v>
+      <c r="E130" s="11">
+        <v>9009</v>
       </c>
       <c r="F130" s="11">
-        <v>9009</v>
+        <v>11814</v>
       </c>
       <c r="G130" s="11">
-        <v>11814</v>
+        <v>16733</v>
       </c>
       <c r="H130" s="11">
-        <v>16733</v>
+        <v>24113</v>
       </c>
       <c r="I130" s="11">
-        <v>24113</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33793</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>33</v>
       </c>
@@ -3246,23 +3246,23 @@
         <v>41</v>
       </c>
       <c r="D131" s="9"/>
-      <c r="E131" s="9" t="s">
-        <v>26</v>
+      <c r="E131" s="9">
+        <v>11423</v>
       </c>
       <c r="F131" s="9">
-        <v>11423</v>
+        <v>28297</v>
       </c>
       <c r="G131" s="9">
-        <v>28297</v>
+        <v>38752</v>
       </c>
       <c r="H131" s="9">
-        <v>38752</v>
+        <v>54742</v>
       </c>
       <c r="I131" s="9">
-        <v>54742</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68042</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>34</v>
       </c>
@@ -3270,23 +3270,23 @@
         <v>41</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="11" t="s">
-        <v>26</v>
+      <c r="E132" s="11">
+        <v>73104</v>
       </c>
       <c r="F132" s="11">
-        <v>73104</v>
+        <v>121270</v>
       </c>
       <c r="G132" s="11">
-        <v>121270</v>
+        <v>170336</v>
       </c>
       <c r="H132" s="11">
-        <v>170336</v>
+        <v>267966</v>
       </c>
       <c r="I132" s="11">
-        <v>267966</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+        <v>428887</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>35</v>
       </c>
@@ -3294,23 +3294,23 @@
         <v>41</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" s="9">
+      <c r="E133" s="9">
         <v>167</v>
       </c>
+      <c r="F133" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G133" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I133" s="9">
+      <c r="H133" s="9">
         <v>194</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I133" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>36</v>
       </c>
@@ -3318,45 +3318,45 @@
         <v>41</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>26</v>
+      <c r="E134" s="11">
+        <v>28946</v>
       </c>
       <c r="F134" s="11">
-        <v>28946</v>
+        <v>48524</v>
       </c>
       <c r="G134" s="11">
-        <v>48524</v>
+        <v>99080</v>
       </c>
       <c r="H134" s="11">
-        <v>99080</v>
+        <v>176095</v>
       </c>
       <c r="I134" s="11">
-        <v>176095</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>285677</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>0</v>
+        <v>246191</v>
       </c>
       <c r="F135" s="15">
-        <v>246191</v>
+        <v>415253</v>
       </c>
       <c r="G135" s="15">
-        <v>415253</v>
+        <v>601605</v>
       </c>
       <c r="H135" s="15">
-        <v>601605</v>
+        <v>965733</v>
       </c>
       <c r="I135" s="15">
-        <v>965733</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1272018</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3366,7 +3366,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3376,7 +3376,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3386,7 +3386,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>44</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3418,7 +3418,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>24</v>
       </c>
@@ -3426,23 +3426,23 @@
         <v>41</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>26</v>
+      <c r="E141" s="9">
+        <v>23606</v>
       </c>
       <c r="F141" s="9">
-        <v>23606</v>
-      </c>
-      <c r="G141" s="9">
         <v>24165</v>
       </c>
-      <c r="H141" s="9" t="s">
-        <v>26</v>
+      <c r="G141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" s="9">
+        <v>88623</v>
       </c>
       <c r="I141" s="9">
-        <v>88623</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79462</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>27</v>
       </c>
@@ -3456,17 +3456,17 @@
       <c r="F142" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H142" s="11">
+      <c r="G142" s="11">
         <v>57484</v>
       </c>
+      <c r="H142" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I142" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>28</v>
       </c>
@@ -3474,23 +3474,23 @@
         <v>41</v>
       </c>
       <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
-        <v>26</v>
+      <c r="E143" s="9">
+        <v>100</v>
       </c>
       <c r="F143" s="9">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G143" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="H143" s="9">
         <v>57</v>
       </c>
       <c r="I143" s="9">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12453</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>29</v>
       </c>
@@ -3498,23 +3498,23 @@
         <v>41</v>
       </c>
       <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>26</v>
+      <c r="E144" s="11">
+        <v>4877</v>
       </c>
       <c r="F144" s="11">
-        <v>4877</v>
+        <v>2919</v>
       </c>
       <c r="G144" s="11">
-        <v>2919</v>
+        <v>67521</v>
       </c>
       <c r="H144" s="11">
-        <v>67521</v>
+        <v>94633</v>
       </c>
       <c r="I144" s="11">
-        <v>94633</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>121922</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>31</v>
       </c>
@@ -3522,23 +3522,23 @@
         <v>41</v>
       </c>
       <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>26</v>
+      <c r="E145" s="9">
+        <v>1640</v>
       </c>
       <c r="F145" s="9">
-        <v>1640</v>
+        <v>2597</v>
       </c>
       <c r="G145" s="9">
-        <v>2597</v>
+        <v>2544</v>
       </c>
       <c r="H145" s="9">
+        <v>2562</v>
+      </c>
+      <c r="I145" s="9">
         <v>2544</v>
       </c>
-      <c r="I145" s="9">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>32</v>
       </c>
@@ -3546,23 +3546,23 @@
         <v>41</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>26</v>
+      <c r="E146" s="11">
+        <v>14432</v>
       </c>
       <c r="F146" s="11">
-        <v>14432</v>
+        <v>3593</v>
       </c>
       <c r="G146" s="11">
-        <v>3593</v>
+        <v>24755</v>
       </c>
       <c r="H146" s="11">
-        <v>24755</v>
+        <v>61386</v>
       </c>
       <c r="I146" s="11">
-        <v>61386</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27594</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>33</v>
       </c>
@@ -3570,23 +3570,23 @@
         <v>41</v>
       </c>
       <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
-        <v>26</v>
+      <c r="E147" s="9">
+        <v>4556</v>
       </c>
       <c r="F147" s="9">
-        <v>4556</v>
+        <v>8256</v>
       </c>
       <c r="G147" s="9">
-        <v>8256</v>
+        <v>3333</v>
       </c>
       <c r="H147" s="9">
-        <v>3333</v>
+        <v>35190</v>
       </c>
       <c r="I147" s="9">
-        <v>35190</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12301</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>34</v>
       </c>
@@ -3594,23 +3594,23 @@
         <v>41</v>
       </c>
       <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>26</v>
+      <c r="E148" s="11">
+        <v>24504</v>
       </c>
       <c r="F148" s="11">
-        <v>24504</v>
+        <v>3219</v>
       </c>
       <c r="G148" s="11">
-        <v>3219</v>
+        <v>31283</v>
       </c>
       <c r="H148" s="11">
-        <v>31283</v>
+        <v>81103</v>
       </c>
       <c r="I148" s="11">
-        <v>81103</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>114212</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>35</v>
       </c>
@@ -3618,23 +3618,23 @@
         <v>41</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F149" s="9">
-        <v>0</v>
+      <c r="E149" s="9">
+        <v>0</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G149" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I149" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H149" s="9">
+        <v>0</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>36</v>
       </c>
@@ -3642,45 +3642,45 @@
         <v>41</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11" t="s">
-        <v>26</v>
+      <c r="E150" s="11">
+        <v>6106</v>
       </c>
       <c r="F150" s="11">
-        <v>6106</v>
+        <v>5780</v>
       </c>
       <c r="G150" s="11">
-        <v>5780</v>
+        <v>10384</v>
       </c>
       <c r="H150" s="11">
-        <v>10384</v>
+        <v>90487</v>
       </c>
       <c r="I150" s="11">
-        <v>90487</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>193730</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15">
-        <v>0</v>
+        <v>79821</v>
       </c>
       <c r="F151" s="15">
-        <v>79821</v>
+        <v>50616</v>
       </c>
       <c r="G151" s="15">
-        <v>50616</v>
+        <v>197361</v>
       </c>
       <c r="H151" s="15">
-        <v>197361</v>
+        <v>454041</v>
       </c>
       <c r="I151" s="15">
-        <v>454041</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+        <v>564218</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3690,7 +3690,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3700,7 +3700,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3710,7 +3710,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>45</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3742,7 +3742,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>24</v>
       </c>
@@ -3750,23 +3750,23 @@
         <v>46</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9" t="s">
-        <v>26</v>
+      <c r="E157" s="9">
+        <v>5516</v>
       </c>
       <c r="F157" s="9">
-        <v>5516</v>
-      </c>
-      <c r="G157" s="9">
         <v>12537</v>
       </c>
-      <c r="H157" s="9" t="s">
-        <v>26</v>
+      <c r="G157" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H157" s="9">
+        <v>24874</v>
       </c>
       <c r="I157" s="9">
-        <v>24874</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28733</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>27</v>
       </c>
@@ -3780,17 +3780,17 @@
       <c r="F158" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G158" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H158" s="11">
+      <c r="G158" s="11">
         <v>12171</v>
       </c>
+      <c r="H158" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I158" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>28</v>
       </c>
@@ -3798,23 +3798,23 @@
         <v>46</v>
       </c>
       <c r="D159" s="9"/>
-      <c r="E159" s="9" t="s">
-        <v>26</v>
+      <c r="E159" s="9">
+        <v>9615</v>
       </c>
       <c r="F159" s="9">
-        <v>9615</v>
+        <v>840</v>
       </c>
       <c r="G159" s="9">
-        <v>840</v>
+        <v>1192</v>
       </c>
       <c r="H159" s="9">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="I159" s="9">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>314522</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>29</v>
       </c>
@@ -3822,23 +3822,23 @@
         <v>47</v>
       </c>
       <c r="D160" s="11"/>
-      <c r="E160" s="11" t="s">
-        <v>26</v>
+      <c r="E160" s="11">
+        <v>27997</v>
       </c>
       <c r="F160" s="11">
-        <v>27997</v>
+        <v>35511</v>
       </c>
       <c r="G160" s="11">
-        <v>35511</v>
+        <v>49251</v>
       </c>
       <c r="H160" s="11">
-        <v>49251</v>
+        <v>100261</v>
       </c>
       <c r="I160" s="11">
-        <v>100261</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>108045</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>31</v>
       </c>
@@ -3846,23 +3846,23 @@
         <v>46</v>
       </c>
       <c r="D161" s="9"/>
-      <c r="E161" s="9" t="s">
-        <v>26</v>
+      <c r="E161" s="9">
+        <v>196119</v>
       </c>
       <c r="F161" s="9">
-        <v>196119</v>
+        <v>204132</v>
       </c>
       <c r="G161" s="9">
-        <v>204132</v>
+        <v>307182</v>
       </c>
       <c r="H161" s="9">
-        <v>307182</v>
+        <v>309346</v>
       </c>
       <c r="I161" s="9">
-        <v>309346</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>309282</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>32</v>
       </c>
@@ -3870,23 +3870,23 @@
         <v>47</v>
       </c>
       <c r="D162" s="11"/>
-      <c r="E162" s="11" t="s">
-        <v>26</v>
+      <c r="E162" s="11">
+        <v>210324</v>
       </c>
       <c r="F162" s="11">
-        <v>210324</v>
+        <v>357635</v>
       </c>
       <c r="G162" s="11">
-        <v>357635</v>
+        <v>358396</v>
       </c>
       <c r="H162" s="11">
-        <v>358396</v>
+        <v>783039</v>
       </c>
       <c r="I162" s="11">
-        <v>783039</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1346982</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>33</v>
       </c>
@@ -3894,23 +3894,23 @@
         <v>47</v>
       </c>
       <c r="D163" s="9"/>
-      <c r="E163" s="9" t="s">
-        <v>26</v>
+      <c r="E163" s="9">
+        <v>142378</v>
       </c>
       <c r="F163" s="9">
-        <v>142378</v>
+        <v>269252</v>
       </c>
       <c r="G163" s="9">
-        <v>269252</v>
+        <v>449496</v>
       </c>
       <c r="H163" s="9">
-        <v>449496</v>
+        <v>656490</v>
       </c>
       <c r="I163" s="9">
-        <v>656490</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1021457</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>34</v>
       </c>
@@ -3918,23 +3918,23 @@
         <v>47</v>
       </c>
       <c r="D164" s="11"/>
-      <c r="E164" s="11" t="s">
-        <v>26</v>
+      <c r="E164" s="11">
+        <v>45579</v>
       </c>
       <c r="F164" s="11">
-        <v>45579</v>
+        <v>51707</v>
       </c>
       <c r="G164" s="11">
-        <v>51707</v>
+        <v>76091</v>
       </c>
       <c r="H164" s="11">
-        <v>76091</v>
+        <v>94737</v>
       </c>
       <c r="I164" s="11">
-        <v>94737</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>168691</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>35</v>
       </c>
@@ -3942,12 +3942,12 @@
         <v>47</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="E165" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F165" s="9">
+      <c r="E165" s="9">
         <v>157845</v>
       </c>
+      <c r="F165" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G165" s="9" t="s">
         <v>26</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>36</v>
       </c>
@@ -3966,23 +3966,23 @@
         <v>47</v>
       </c>
       <c r="D166" s="11"/>
-      <c r="E166" s="11" t="s">
-        <v>26</v>
+      <c r="E166" s="11">
+        <v>374352</v>
       </c>
       <c r="F166" s="11">
-        <v>374352</v>
+        <v>477367</v>
       </c>
       <c r="G166" s="11">
-        <v>477367</v>
+        <v>748996</v>
       </c>
       <c r="H166" s="11">
-        <v>748996</v>
+        <v>1524369</v>
       </c>
       <c r="I166" s="11">
-        <v>1524369</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3568627</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3992,7 +3992,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4002,7 +4002,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4012,7 +4012,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
         <v>48</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4044,7 +4044,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>24</v>
       </c>
@@ -4052,23 +4052,23 @@
         <v>46</v>
       </c>
       <c r="D172" s="9"/>
-      <c r="E172" s="9" t="s">
-        <v>26</v>
+      <c r="E172" s="9">
+        <v>10649</v>
       </c>
       <c r="F172" s="9">
-        <v>10649</v>
-      </c>
-      <c r="G172" s="9">
         <v>14850</v>
       </c>
-      <c r="H172" s="9" t="s">
-        <v>26</v>
+      <c r="G172" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H172" s="9">
+        <v>33591</v>
       </c>
       <c r="I172" s="9">
-        <v>33591</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>513497</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>27</v>
       </c>
@@ -4082,17 +4082,17 @@
       <c r="F173" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G173" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H173" s="11">
+      <c r="G173" s="11">
         <v>20812</v>
       </c>
+      <c r="H173" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I173" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
         <v>28</v>
       </c>
@@ -4100,12 +4100,12 @@
         <v>46</v>
       </c>
       <c r="D174" s="9"/>
-      <c r="E174" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F174" s="9">
+      <c r="E174" s="9">
         <v>11663</v>
       </c>
+      <c r="F174" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G174" s="9" t="s">
         <v>26</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>29</v>
       </c>
@@ -4124,23 +4124,23 @@
         <v>47</v>
       </c>
       <c r="D175" s="11"/>
-      <c r="E175" s="11" t="s">
-        <v>26</v>
+      <c r="E175" s="11">
+        <v>34247</v>
       </c>
       <c r="F175" s="11">
-        <v>34247</v>
+        <v>48655</v>
       </c>
       <c r="G175" s="11">
-        <v>48655</v>
+        <v>86727</v>
       </c>
       <c r="H175" s="11">
-        <v>86727</v>
+        <v>112040</v>
       </c>
       <c r="I175" s="11">
-        <v>112040</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177139</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>31</v>
       </c>
@@ -4151,12 +4151,12 @@
       <c r="E176" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F176" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" s="9">
+      <c r="F176" s="9">
         <v>597158</v>
       </c>
+      <c r="G176" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H176" s="9" t="s">
         <v>26</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>32</v>
       </c>
@@ -4172,23 +4172,23 @@
         <v>47</v>
       </c>
       <c r="D177" s="11"/>
-      <c r="E177" s="11" t="s">
-        <v>26</v>
+      <c r="E177" s="11">
+        <v>325041</v>
       </c>
       <c r="F177" s="11">
-        <v>325041</v>
+        <v>368759</v>
       </c>
       <c r="G177" s="11">
-        <v>368759</v>
+        <v>754515</v>
       </c>
       <c r="H177" s="11">
-        <v>754515</v>
+        <v>1556062</v>
       </c>
       <c r="I177" s="11">
-        <v>1556062</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>33</v>
       </c>
@@ -4196,23 +4196,23 @@
         <v>47</v>
       </c>
       <c r="D178" s="9"/>
-      <c r="E178" s="9" t="s">
-        <v>26</v>
+      <c r="E178" s="9">
+        <v>210501</v>
       </c>
       <c r="F178" s="9">
-        <v>210501</v>
+        <v>399759</v>
       </c>
       <c r="G178" s="9">
-        <v>399759</v>
+        <v>555246</v>
       </c>
       <c r="H178" s="9">
-        <v>555246</v>
+        <v>916750</v>
       </c>
       <c r="I178" s="9">
-        <v>916750</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1164935</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>34</v>
       </c>
@@ -4220,23 +4220,23 @@
         <v>47</v>
       </c>
       <c r="D179" s="11"/>
-      <c r="E179" s="11" t="s">
-        <v>26</v>
+      <c r="E179" s="11">
+        <v>52253</v>
       </c>
       <c r="F179" s="11">
-        <v>52253</v>
+        <v>80458</v>
       </c>
       <c r="G179" s="11">
-        <v>80458</v>
+        <v>93435</v>
       </c>
       <c r="H179" s="11">
-        <v>93435</v>
+        <v>164045</v>
       </c>
       <c r="I179" s="11">
-        <v>164045</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+        <v>232119</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>35</v>
       </c>
@@ -4253,14 +4253,14 @@
       <c r="G180" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H180" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I180" s="9">
+      <c r="H180" s="9">
         <v>106946</v>
       </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I180" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>36</v>
       </c>
@@ -4268,23 +4268,23 @@
         <v>47</v>
       </c>
       <c r="D181" s="11"/>
-      <c r="E181" s="11" t="s">
-        <v>26</v>
+      <c r="E181" s="11">
+        <v>431445</v>
       </c>
       <c r="F181" s="11">
-        <v>431445</v>
+        <v>722706</v>
       </c>
       <c r="G181" s="11">
-        <v>722706</v>
+        <v>1312339</v>
       </c>
       <c r="H181" s="11">
-        <v>1312339</v>
+        <v>2880506</v>
       </c>
       <c r="I181" s="11">
-        <v>2880506</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14162449</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4294,7 +4294,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4304,7 +4304,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4314,7 +4314,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B185" s="7" t="s">
         <v>49</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4346,7 +4346,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>24</v>
       </c>
@@ -4354,23 +4354,23 @@
         <v>46</v>
       </c>
       <c r="D187" s="9"/>
-      <c r="E187" s="9" t="s">
-        <v>26</v>
+      <c r="E187" s="9">
+        <v>9143</v>
       </c>
       <c r="F187" s="9">
-        <v>9143</v>
-      </c>
-      <c r="G187" s="9">
         <v>14859</v>
       </c>
-      <c r="H187" s="9" t="s">
-        <v>26</v>
+      <c r="G187" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H187" s="9">
+        <v>32645</v>
       </c>
       <c r="I187" s="9">
-        <v>32645</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8937472</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>27</v>
       </c>
@@ -4384,17 +4384,17 @@
       <c r="F188" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G188" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H188" s="11">
+      <c r="G188" s="11">
         <v>20258</v>
       </c>
+      <c r="H188" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I188" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>28</v>
       </c>
@@ -4402,23 +4402,23 @@
         <v>46</v>
       </c>
       <c r="D189" s="9"/>
-      <c r="E189" s="9" t="s">
-        <v>26</v>
+      <c r="E189" s="9">
+        <v>12885</v>
       </c>
       <c r="F189" s="9">
-        <v>12885</v>
+        <v>1238</v>
       </c>
       <c r="G189" s="9">
-        <v>1238</v>
-      </c>
-      <c r="H189" s="9">
         <v>1200</v>
       </c>
-      <c r="I189" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H189" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I189" s="9">
+        <v>339933</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>29</v>
       </c>
@@ -4426,23 +4426,23 @@
         <v>47</v>
       </c>
       <c r="D190" s="11"/>
-      <c r="E190" s="11" t="s">
-        <v>26</v>
+      <c r="E190" s="11">
+        <v>32087</v>
       </c>
       <c r="F190" s="11">
-        <v>32087</v>
+        <v>46643</v>
       </c>
       <c r="G190" s="11">
-        <v>46643</v>
+        <v>72237</v>
       </c>
       <c r="H190" s="11">
-        <v>72237</v>
+        <v>104397</v>
       </c>
       <c r="I190" s="11">
-        <v>104397</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139605</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>31</v>
       </c>
@@ -4450,23 +4450,23 @@
         <v>46</v>
       </c>
       <c r="D191" s="9"/>
-      <c r="E191" s="9" t="s">
-        <v>26</v>
+      <c r="E191" s="9">
+        <v>84211</v>
       </c>
       <c r="F191" s="9">
-        <v>84211</v>
+        <v>306261</v>
       </c>
       <c r="G191" s="9">
-        <v>306261</v>
-      </c>
-      <c r="H191" s="9">
         <v>333333</v>
       </c>
-      <c r="I191" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H191" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I191" s="9">
+        <v>306122</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>32</v>
       </c>
@@ -4474,23 +4474,23 @@
         <v>47</v>
       </c>
       <c r="D192" s="11"/>
-      <c r="E192" s="11" t="s">
-        <v>26</v>
+      <c r="E192" s="11">
+        <v>241037</v>
       </c>
       <c r="F192" s="11">
-        <v>241037</v>
+        <v>358326</v>
       </c>
       <c r="G192" s="11">
-        <v>358326</v>
+        <v>584273</v>
       </c>
       <c r="H192" s="11">
-        <v>584273</v>
+        <v>902973</v>
       </c>
       <c r="I192" s="11">
-        <v>902973</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1346979</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>33</v>
       </c>
@@ -4498,23 +4498,23 @@
         <v>47</v>
       </c>
       <c r="D193" s="9"/>
-      <c r="E193" s="9" t="s">
-        <v>26</v>
+      <c r="E193" s="9">
+        <v>191758</v>
       </c>
       <c r="F193" s="9">
-        <v>191758</v>
+        <v>360807</v>
       </c>
       <c r="G193" s="9">
-        <v>360807</v>
+        <v>522152</v>
       </c>
       <c r="H193" s="9">
-        <v>522152</v>
+        <v>906325</v>
       </c>
       <c r="I193" s="9">
-        <v>906325</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1075321</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>34</v>
       </c>
@@ -4522,23 +4522,23 @@
         <v>47</v>
       </c>
       <c r="D194" s="11"/>
-      <c r="E194" s="11" t="s">
-        <v>26</v>
+      <c r="E194" s="11">
+        <v>49638</v>
       </c>
       <c r="F194" s="11">
-        <v>49638</v>
+        <v>72276</v>
       </c>
       <c r="G194" s="11">
-        <v>72276</v>
+        <v>92123310</v>
       </c>
       <c r="H194" s="11">
-        <v>92123310</v>
+        <v>142250</v>
       </c>
       <c r="I194" s="11">
-        <v>142250</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+        <v>216051</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>35</v>
       </c>
@@ -4546,23 +4546,23 @@
         <v>47</v>
       </c>
       <c r="D195" s="9"/>
-      <c r="E195" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F195" s="9">
+      <c r="E195" s="9">
         <v>157845</v>
       </c>
+      <c r="F195" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G195" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H195" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I195" s="9">
+      <c r="H195" s="9">
         <v>106946</v>
       </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I195" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>36</v>
       </c>
@@ -4570,23 +4570,23 @@
         <v>47</v>
       </c>
       <c r="D196" s="11"/>
-      <c r="E196" s="11" t="s">
-        <v>26</v>
+      <c r="E196" s="11">
+        <v>412401</v>
       </c>
       <c r="F196" s="11">
-        <v>412401</v>
+        <v>676151</v>
       </c>
       <c r="G196" s="11">
-        <v>676151</v>
+        <v>1239864</v>
       </c>
       <c r="H196" s="11">
-        <v>1239864</v>
+        <v>2543806</v>
       </c>
       <c r="I196" s="11">
-        <v>2543806</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41839045</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -4596,7 +4596,7 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4606,7 +4606,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -4616,7 +4616,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B200" s="7" t="s">
         <v>50</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4648,7 +4648,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="8" t="s">
         <v>24</v>
       </c>
@@ -4656,23 +4656,23 @@
         <v>25</v>
       </c>
       <c r="D202" s="9"/>
-      <c r="E202" s="9" t="s">
-        <v>26</v>
+      <c r="E202" s="9">
+        <v>12538</v>
       </c>
       <c r="F202" s="9">
-        <v>12538</v>
-      </c>
-      <c r="G202" s="9">
         <v>12541</v>
       </c>
-      <c r="H202" s="9" t="s">
-        <v>26</v>
+      <c r="G202" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H202" s="9">
+        <v>30204</v>
       </c>
       <c r="I202" s="9">
-        <v>30204</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31996</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="10" t="s">
         <v>27</v>
       </c>
@@ -4686,17 +4686,17 @@
       <c r="F203" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G203" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H203" s="11">
+      <c r="G203" s="11">
         <v>17313</v>
       </c>
+      <c r="H203" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I203" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="8" t="s">
         <v>28</v>
       </c>
@@ -4704,23 +4704,23 @@
         <v>25</v>
       </c>
       <c r="D204" s="9"/>
-      <c r="E204" s="9" t="s">
-        <v>26</v>
+      <c r="E204" s="9">
+        <v>840</v>
       </c>
       <c r="F204" s="9">
-        <v>840</v>
+        <v>802</v>
       </c>
       <c r="G204" s="9">
-        <v>802</v>
+        <v>1188</v>
       </c>
       <c r="H204" s="9">
         <v>1188</v>
       </c>
       <c r="I204" s="9">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+        <v>277535</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="10" t="s">
         <v>29</v>
       </c>
@@ -4728,23 +4728,23 @@
         <v>30</v>
       </c>
       <c r="D205" s="11"/>
-      <c r="E205" s="11" t="s">
-        <v>26</v>
+      <c r="E205" s="11">
+        <v>35504</v>
       </c>
       <c r="F205" s="11">
-        <v>35504</v>
+        <v>54090</v>
       </c>
       <c r="G205" s="11">
-        <v>54090</v>
+        <v>100005</v>
       </c>
       <c r="H205" s="11">
-        <v>100005</v>
+        <v>110517</v>
       </c>
       <c r="I205" s="11">
-        <v>110517</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+        <v>146279</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="8" t="s">
         <v>31</v>
       </c>
@@ -4752,23 +4752,23 @@
         <v>25</v>
       </c>
       <c r="D206" s="9"/>
-      <c r="E206" s="9" t="s">
-        <v>26</v>
+      <c r="E206" s="9">
+        <v>204056</v>
       </c>
       <c r="F206" s="9">
-        <v>204056</v>
+        <v>306070</v>
       </c>
       <c r="G206" s="9">
-        <v>306070</v>
+        <v>307172</v>
       </c>
       <c r="H206" s="9">
-        <v>307172</v>
+        <v>309346</v>
       </c>
       <c r="I206" s="9">
-        <v>309346</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+        <v>309301</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="10" t="s">
         <v>32</v>
       </c>
@@ -4776,23 +4776,23 @@
         <v>30</v>
       </c>
       <c r="D207" s="11"/>
-      <c r="E207" s="11" t="s">
-        <v>26</v>
+      <c r="E207" s="11">
+        <v>357635</v>
       </c>
       <c r="F207" s="11">
-        <v>357635</v>
+        <v>358297</v>
       </c>
       <c r="G207" s="11">
-        <v>358297</v>
+        <v>783089</v>
       </c>
       <c r="H207" s="11">
-        <v>783089</v>
+        <v>1396819</v>
       </c>
       <c r="I207" s="11">
-        <v>1396819</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1346969</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="8" t="s">
         <v>33</v>
       </c>
@@ -4800,23 +4800,23 @@
         <v>30</v>
       </c>
       <c r="D208" s="9"/>
-      <c r="E208" s="9" t="s">
-        <v>26</v>
+      <c r="E208" s="9">
+        <v>261824</v>
       </c>
       <c r="F208" s="9">
-        <v>261824</v>
+        <v>449551</v>
       </c>
       <c r="G208" s="9">
-        <v>449551</v>
+        <v>656490</v>
       </c>
       <c r="H208" s="9">
-        <v>656490</v>
+        <v>899080</v>
       </c>
       <c r="I208" s="9">
-        <v>899080</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1241898</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B209" s="10" t="s">
         <v>34</v>
       </c>
@@ -4824,23 +4824,23 @@
         <v>30</v>
       </c>
       <c r="D209" s="11"/>
-      <c r="E209" s="11" t="s">
-        <v>26</v>
+      <c r="E209" s="11">
+        <v>51697</v>
       </c>
       <c r="F209" s="11">
-        <v>51697</v>
+        <v>83621</v>
       </c>
       <c r="G209" s="11">
-        <v>83621</v>
+        <v>14368</v>
       </c>
       <c r="H209" s="11">
-        <v>14368</v>
+        <v>211411</v>
       </c>
       <c r="I209" s="11">
-        <v>211411</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+        <v>235121</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="8" t="s">
         <v>36</v>
       </c>
@@ -4848,23 +4848,23 @@
         <v>30</v>
       </c>
       <c r="D210" s="9"/>
-      <c r="E210" s="9" t="s">
-        <v>26</v>
+      <c r="E210" s="9">
+        <v>477367</v>
       </c>
       <c r="F210" s="9">
-        <v>477367</v>
+        <v>748996</v>
       </c>
       <c r="G210" s="9">
-        <v>748996</v>
+        <v>1524369</v>
       </c>
       <c r="H210" s="9">
-        <v>1524369</v>
+        <v>3410871</v>
       </c>
       <c r="I210" s="9">
-        <v>3410871</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4224102</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -4874,7 +4874,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4884,7 +4884,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4894,7 +4894,7 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B214" s="7" t="s">
         <v>51</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -4926,20 +4926,20 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9">
-        <v>15444</v>
+        <v>20362</v>
       </c>
       <c r="F216" s="9">
-        <v>20362</v>
+        <v>38840</v>
       </c>
       <c r="G216" s="9">
-        <v>38840</v>
+        <v>0</v>
       </c>
       <c r="H216" s="9">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B217" s="10" t="s">
         <v>53</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B218" s="8" t="s">
         <v>54</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B219" s="10" t="s">
         <v>55</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B220" s="8" t="s">
         <v>56</v>
       </c>
@@ -5036,73 +5036,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B221" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11">
-        <v>266900</v>
+        <v>271229</v>
       </c>
       <c r="F221" s="11">
-        <v>271229</v>
+        <v>274305</v>
       </c>
       <c r="G221" s="11">
-        <v>274305</v>
+        <v>347981</v>
       </c>
       <c r="H221" s="11">
-        <v>347981</v>
+        <v>814103</v>
       </c>
       <c r="I221" s="11">
-        <v>690043</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1329571</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B222" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9">
-        <v>70266</v>
+        <v>63592</v>
       </c>
       <c r="F222" s="9">
-        <v>63592</v>
+        <v>63095</v>
       </c>
       <c r="G222" s="9">
-        <v>63095</v>
+        <v>65264</v>
       </c>
       <c r="H222" s="9">
-        <v>65264</v>
+        <v>77725</v>
       </c>
       <c r="I222" s="9">
-        <v>77725</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+        <v>87867</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B223" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11">
-        <v>294005</v>
+        <v>345556</v>
       </c>
       <c r="F223" s="11">
-        <v>345556</v>
+        <v>447797</v>
       </c>
       <c r="G223" s="11">
-        <v>447797</v>
+        <v>516806</v>
       </c>
       <c r="H223" s="11">
-        <v>516806</v>
+        <v>796376</v>
       </c>
       <c r="I223" s="11">
-        <v>796376</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1219762</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B224" s="8" t="s">
         <v>60</v>
       </c>
@@ -5124,48 +5124,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11">
-        <v>94723</v>
+        <v>142533</v>
       </c>
       <c r="F225" s="11">
-        <v>142533</v>
+        <v>171506</v>
       </c>
       <c r="G225" s="11">
-        <v>171506</v>
+        <v>292610</v>
       </c>
       <c r="H225" s="11">
-        <v>292610</v>
+        <v>538232</v>
       </c>
       <c r="I225" s="11">
-        <v>662292</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1037882</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B226" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C226" s="15"/>
       <c r="D226" s="15"/>
       <c r="E226" s="15">
-        <v>741338</v>
+        <v>843272</v>
       </c>
       <c r="F226" s="15">
-        <v>843272</v>
+        <v>995543</v>
       </c>
       <c r="G226" s="15">
-        <v>995543</v>
+        <v>1222661</v>
       </c>
       <c r="H226" s="15">
-        <v>1222661</v>
+        <v>2226436</v>
       </c>
       <c r="I226" s="15">
-        <v>2226436</v>
+        <v>3675082</v>
       </c>
     </row>
   </sheetData>
